--- a/refdata/spin_orbit_correction.xlsx
+++ b/refdata/spin_orbit_correction.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nistgov-my.sharepoint.com/personal/irikura_nist_gov/Documents/Karl/thermo_machine/gamba_dir/refdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nistgov-my.sharepoint.com/personal/irikura_nist_gov/Documents/Karl/multirx/refdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="131" documentId="11_F25DC773A252ABDACC1048BFA95E751A5BDE58F9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7747FEC-E3BD-4145-A801-C0AE468C9563}"/>
+  <xr:revisionPtr revIDLastSave="168" documentId="11_F25DC773A252ABDACC1048BFA95E751A5BDE58F9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{652CC94F-FDE5-43F9-873D-BBB5B2FF0280}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="75">
   <si>
     <t>Species</t>
   </si>
@@ -172,6 +172,93 @@
   </si>
   <si>
     <t>Le et al., JMS 2018</t>
+  </si>
+  <si>
+    <t>CASRN</t>
+  </si>
+  <si>
+    <t>7440-44-0</t>
+  </si>
+  <si>
+    <t>17778-80-2</t>
+  </si>
+  <si>
+    <t>14762-94-8</t>
+  </si>
+  <si>
+    <t>7440-21-3</t>
+  </si>
+  <si>
+    <t>7704-34-9</t>
+  </si>
+  <si>
+    <t>22537-15-1</t>
+  </si>
+  <si>
+    <t>10102-43-9</t>
+  </si>
+  <si>
+    <t>3352-57-6</t>
+  </si>
+  <si>
+    <t>3315-37-5</t>
+  </si>
+  <si>
+    <t>3889-75-6</t>
+  </si>
+  <si>
+    <t>12061-70-0</t>
+  </si>
+  <si>
+    <t>13774-94-2</t>
+  </si>
+  <si>
+    <t>3889-76-7</t>
+  </si>
+  <si>
+    <t>14989-30-1</t>
+  </si>
+  <si>
+    <t>12385-13-6</t>
+  </si>
+  <si>
+    <t>17778-88-0</t>
+  </si>
+  <si>
+    <t>7723-14-0</t>
+  </si>
+  <si>
+    <t>2074-87-5</t>
+  </si>
+  <si>
+    <t>2122-48-7</t>
+  </si>
+  <si>
+    <t>7440-42-8</t>
+  </si>
+  <si>
+    <t>7429-90-5</t>
+  </si>
+  <si>
+    <t>10097-32-2</t>
+  </si>
+  <si>
+    <t>14362-44-8</t>
+  </si>
+  <si>
+    <t>11128-24-8</t>
+  </si>
+  <si>
+    <t>14452-66-5</t>
+  </si>
+  <si>
+    <t>13940-21-1</t>
+  </si>
+  <si>
+    <t>16068-96-5</t>
+  </si>
+  <si>
+    <t>3889-77-8</t>
   </si>
 </sst>
 </file>
@@ -504,601 +591,692 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3">
         <v>-6.3</v>
       </c>
-      <c r="C3">
-        <v>-1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
+      <c r="D3">
+        <v>-1</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4">
         <v>-29.6</v>
       </c>
-      <c r="C4">
-        <v>-1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
+      <c r="D4">
+        <v>-1</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5">
         <v>-78</v>
       </c>
-      <c r="C5">
-        <v>-1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
+      <c r="D5">
+        <v>-1</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6">
         <v>-134.69999999999999</v>
       </c>
-      <c r="C6">
-        <v>-1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
+      <c r="D6">
+        <v>-1</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7">
         <v>-74.7</v>
       </c>
-      <c r="C7">
-        <v>-1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
+      <c r="D7">
+        <v>-1</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8">
         <v>-149.80000000000001</v>
       </c>
-      <c r="C8">
-        <v>-1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
+      <c r="D8">
+        <v>-1</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9">
         <v>-196</v>
       </c>
-      <c r="C9">
-        <v>-1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>6</v>
+      <c r="D9">
+        <v>-1</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10">
         <v>-293.7</v>
       </c>
-      <c r="C10">
-        <v>-1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>6</v>
+      <c r="D10">
+        <v>-1</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11">
         <v>-1228.4000000000001</v>
       </c>
-      <c r="C11">
-        <v>-1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>6</v>
+      <c r="D11">
+        <v>-1</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12">
         <v>-2534.4</v>
       </c>
-      <c r="C12">
-        <v>-1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>6</v>
+      <c r="D12">
+        <v>-1</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13">
         <v>-59.9</v>
       </c>
-      <c r="C13">
-        <v>-1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>6</v>
+      <c r="D13">
+        <v>-1</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14">
         <v>-69.599999999999994</v>
       </c>
-      <c r="C14">
-        <v>-1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>6</v>
+      <c r="D14">
+        <v>-1</v>
       </c>
       <c r="E14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15">
         <v>-14</v>
       </c>
-      <c r="C15">
-        <v>-1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>6</v>
+      <c r="D15">
+        <v>-1</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16">
         <v>-38.6</v>
       </c>
-      <c r="C16">
-        <v>-1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>6</v>
+      <c r="D16">
+        <v>-1</v>
       </c>
       <c r="E16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17">
         <v>-98.1</v>
       </c>
-      <c r="C17">
-        <v>-1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>6</v>
+      <c r="D17">
+        <v>-1</v>
       </c>
       <c r="E17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18">
         <v>-71.400000000000006</v>
       </c>
-      <c r="C18">
-        <v>-1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>6</v>
+      <c r="D18">
+        <v>-1</v>
       </c>
       <c r="E18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19">
         <v>-80.900000000000006</v>
       </c>
-      <c r="C19">
-        <v>-1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>6</v>
+      <c r="D19">
+        <v>-1</v>
       </c>
       <c r="E19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20">
         <v>-112</v>
       </c>
-      <c r="C20">
-        <v>-1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>6</v>
+      <c r="D20">
+        <v>-1</v>
       </c>
       <c r="E20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21">
         <v>-188.5</v>
       </c>
-      <c r="C21">
-        <v>-1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>6</v>
+      <c r="D21">
+        <v>-1</v>
       </c>
       <c r="E21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22">
         <v>-67.5</v>
       </c>
-      <c r="C22">
-        <v>-1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>6</v>
+      <c r="D22">
+        <v>-1</v>
       </c>
       <c r="E22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23">
         <v>-200.5</v>
       </c>
-      <c r="C23">
-        <v>-1</v>
-      </c>
-      <c r="D23" t="s">
-        <v>6</v>
+      <c r="D23">
+        <v>-1</v>
       </c>
       <c r="E23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24">
         <v>-159</v>
       </c>
-      <c r="C24">
-        <v>-1</v>
-      </c>
-      <c r="D24" t="s">
-        <v>6</v>
+      <c r="D24">
+        <v>-1</v>
       </c>
       <c r="E24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25">
         <v>-310.7</v>
       </c>
-      <c r="C25">
-        <v>-1</v>
-      </c>
-      <c r="D25" t="s">
-        <v>6</v>
+      <c r="D25">
+        <v>-1</v>
       </c>
       <c r="E25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F25" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>35</v>
       </c>
-      <c r="B26">
-        <v>0</v>
+      <c r="B26" t="s">
+        <v>61</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
-      <c r="D26" t="s">
-        <v>6</v>
+      <c r="D26">
+        <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F26" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>37</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27">
         <v>0</v>
       </c>
-      <c r="C27">
-        <v>-1</v>
-      </c>
-      <c r="D27" t="s">
-        <v>6</v>
+      <c r="D27">
+        <v>-1</v>
       </c>
       <c r="E27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" t="s">
         <v>38</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>43</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28">
         <v>0</v>
       </c>
-      <c r="C28">
-        <v>-1</v>
-      </c>
-      <c r="D28" t="s">
-        <v>6</v>
+      <c r="D28">
+        <v>-1</v>
       </c>
       <c r="E28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" t="s">
         <v>38</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>40</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29">
         <v>0</v>
       </c>
-      <c r="C29">
-        <v>-1</v>
-      </c>
-      <c r="D29" t="s">
-        <v>6</v>
+      <c r="D29">
+        <v>-1</v>
       </c>
       <c r="E29" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" t="s">
         <v>41</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>44</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30">
         <v>0</v>
       </c>
-      <c r="C30">
-        <v>-1</v>
-      </c>
-      <c r="D30" t="s">
-        <v>6</v>
+      <c r="D30">
+        <v>-1</v>
       </c>
       <c r="E30" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" t="s">
         <v>45</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>